--- a/2025_2026/BoxScores/February.xlsx
+++ b/2025_2026/BoxScores/February.xlsx
@@ -5,19 +5,42 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\NHLStats\Templates\BoxScores\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\NHLStats\2025_2026\BoxScores\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{453DD6B7-1892-4AE8-A91D-993C74A8EA51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F6CF3A5-8D7F-4A34-8CC8-CDCDE48F4199}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7901B5C0-98B5-4042-9E0B-86E022D78A84}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="1" xr2:uid="{7901B5C0-98B5-4042-9E0B-86E022D78A84}"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="1" r:id="rId1"/>
-    <sheet name="Teams" sheetId="2" r:id="rId2"/>
-    <sheet name="Scores Template" sheetId="3" r:id="rId3"/>
-    <sheet name="Offense (MM-DD-YY)" sheetId="5" r:id="rId4"/>
-    <sheet name="Goalies (DD-MM-YY)" sheetId="4" r:id="rId5"/>
+    <sheet name="Scores (2-1-26)" sheetId="3" r:id="rId2"/>
+    <sheet name="Scores (2-2-26)" sheetId="6" r:id="rId3"/>
+    <sheet name="Scores (2-3-26)" sheetId="9" r:id="rId4"/>
+    <sheet name="Scores (2-4-26)" sheetId="12" r:id="rId5"/>
+    <sheet name="Scores (2-5-26)" sheetId="15" r:id="rId6"/>
+    <sheet name="Scores (2-25-26)" sheetId="18" r:id="rId7"/>
+    <sheet name="Scores (2-26-26)" sheetId="21" r:id="rId8"/>
+    <sheet name="Scores (2-27-26)" sheetId="24" r:id="rId9"/>
+    <sheet name="Scores (2-28-26)" sheetId="25" r:id="rId10"/>
+    <sheet name="Offense (2-1-26)" sheetId="5" r:id="rId11"/>
+    <sheet name="Goalies (2-1-26)" sheetId="4" r:id="rId12"/>
+    <sheet name="Offense (2-2-26)" sheetId="7" r:id="rId13"/>
+    <sheet name="Goalies (2-2-26)" sheetId="8" r:id="rId14"/>
+    <sheet name="Offense (2-3-26)" sheetId="10" r:id="rId15"/>
+    <sheet name="Goalies (2-3-26)" sheetId="11" r:id="rId16"/>
+    <sheet name="Offense (2-4-26)" sheetId="13" r:id="rId17"/>
+    <sheet name="Goalies (2-4-26)" sheetId="14" r:id="rId18"/>
+    <sheet name="Offense (2-5-26)" sheetId="16" r:id="rId19"/>
+    <sheet name="Goalies (2-5-26)" sheetId="17" r:id="rId20"/>
+    <sheet name="Offense (2-25-26)" sheetId="19" r:id="rId21"/>
+    <sheet name="Goalies (2-25-26)" sheetId="20" r:id="rId22"/>
+    <sheet name="Offense (2-26-26)" sheetId="22" r:id="rId23"/>
+    <sheet name="Goalies (2-26-26)" sheetId="23" r:id="rId24"/>
+    <sheet name="Offense (2-27-26)" sheetId="26" r:id="rId25"/>
+    <sheet name="Goalies (2-27-26)" sheetId="27" r:id="rId26"/>
+    <sheet name="Offense (2-28-26)" sheetId="28" r:id="rId27"/>
+    <sheet name="Goalies (2-28-26)" sheetId="29" r:id="rId28"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="89">
   <si>
     <t>Winnipeg Jets</t>
   </si>
@@ -135,24 +158,6 @@
     <t>Anaheim Ducks</t>
   </si>
   <si>
-    <t xml:space="preserve">Pacific </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Central </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Metropolitan </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Atlantic </t>
-  </si>
-  <si>
-    <t>Western Conference</t>
-  </si>
-  <si>
-    <t>Eastern Conference</t>
-  </si>
-  <si>
     <t>Goalies</t>
   </si>
   <si>
@@ -177,9 +182,6 @@
     <t>INDEX</t>
   </si>
   <si>
-    <t>October 4th 2024</t>
-  </si>
-  <si>
     <t>G</t>
   </si>
   <si>
@@ -267,17 +269,74 @@
     <t>A</t>
   </si>
   <si>
-    <t>Month</t>
-  </si>
-  <si>
     <t>Utah Mammoth</t>
+  </si>
+  <si>
+    <t>February</t>
+  </si>
+  <si>
+    <t>1st</t>
+  </si>
+  <si>
+    <t>2nd</t>
+  </si>
+  <si>
+    <t>3rd</t>
+  </si>
+  <si>
+    <t>4th</t>
+  </si>
+  <si>
+    <t>5th</t>
+  </si>
+  <si>
+    <t>25th</t>
+  </si>
+  <si>
+    <t>26th</t>
+  </si>
+  <si>
+    <t>27th</t>
+  </si>
+  <si>
+    <t>28th</t>
+  </si>
+  <si>
+    <t>February 1st, 2026</t>
+  </si>
+  <si>
+    <t>February 2nd, 2026</t>
+  </si>
+  <si>
+    <t>February 3rd, 2026</t>
+  </si>
+  <si>
+    <t>February 4th, 2026</t>
+  </si>
+  <si>
+    <t>February 5th, 2026</t>
+  </si>
+  <si>
+    <t>February 25th, 2026</t>
+  </si>
+  <si>
+    <t>February 26th, 2026</t>
+  </si>
+  <si>
+    <t>February 27th, 2026</t>
+  </si>
+  <si>
+    <t>February 28th, 2026</t>
+  </si>
+  <si>
+    <t>Scores</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -314,6 +373,12 @@
       <b/>
       <sz val="16"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -486,7 +551,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -504,9 +569,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -543,9 +605,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -886,13 +945,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5D177AD-3B5D-4C42-BF73-A9BA1128D737}">
-  <dimension ref="A1:AA52"/>
+  <dimension ref="A1:AA32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AA28" sqref="AA28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.5703125" style="1" customWidth="1"/>
     <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
@@ -902,470 +961,250 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="B1" s="19"/>
+      <c r="A1" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" s="18"/>
       <c r="AA1" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:27" ht="15.75" outlineLevel="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5"/>
-      <c r="B2" s="6"/>
+    <row r="2" spans="1:27" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>88</v>
+      </c>
       <c r="AA2" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:27" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
-      <c r="B3" s="4"/>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>88</v>
+      </c>
       <c r="AA3" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:27" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="5"/>
-      <c r="B4" s="4"/>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>88</v>
+      </c>
       <c r="AA4" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:27" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="5"/>
-      <c r="B5" s="4"/>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>88</v>
+      </c>
       <c r="AA5" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:27" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
-      <c r="B6" s="4"/>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>88</v>
+      </c>
       <c r="AA6" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:27" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
-      <c r="B7" s="4"/>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>88</v>
+      </c>
       <c r="AA7" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:27" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="5"/>
-      <c r="B8" s="4"/>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>88</v>
+      </c>
       <c r="AA8" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:27" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
-      <c r="B9" s="4"/>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>88</v>
+      </c>
       <c r="AA9" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:27" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="5"/>
-      <c r="B10" s="4"/>
+    <row r="10" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>88</v>
+      </c>
       <c r="AA10" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:27" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="5"/>
-      <c r="B11" s="4"/>
+    <row r="11" spans="1:27" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="AA11" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:27" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="5"/>
-      <c r="B12" s="4"/>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="AA12" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:27" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
-      <c r="B13" s="4"/>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="AA13" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:27" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="5"/>
-      <c r="B14" s="4"/>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="AA14" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:27" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="5"/>
-      <c r="B15" s="4"/>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="AA15" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:27" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="5"/>
-      <c r="B16" s="4"/>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="AA16" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:27" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="5"/>
-      <c r="B17" s="4"/>
+    <row r="17" spans="27:27" x14ac:dyDescent="0.25">
       <c r="AA17" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:27" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="5"/>
-      <c r="B18" s="4"/>
+    <row r="18" spans="27:27" x14ac:dyDescent="0.25">
       <c r="AA18" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:27" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="5"/>
-      <c r="B19" s="4"/>
+    <row r="19" spans="27:27" x14ac:dyDescent="0.25">
       <c r="AA19" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:27" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="5"/>
-      <c r="B20" s="4"/>
+    <row r="20" spans="27:27" x14ac:dyDescent="0.25">
       <c r="AA20" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:27" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="5"/>
-      <c r="B21" s="4"/>
+    <row r="21" spans="27:27" x14ac:dyDescent="0.25">
       <c r="AA21" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:27" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="5"/>
-      <c r="B22" s="4"/>
+    <row r="22" spans="27:27" x14ac:dyDescent="0.25">
       <c r="AA22" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:27" ht="15.75" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="3"/>
-      <c r="B23" s="2"/>
+    <row r="23" spans="27:27" x14ac:dyDescent="0.25">
       <c r="AA23" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:27" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="27:27" x14ac:dyDescent="0.25">
       <c r="AA24" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:27" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="27:27" x14ac:dyDescent="0.25">
       <c r="AA25" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:27" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="27:27" x14ac:dyDescent="0.25">
       <c r="AA26" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:27" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="27:27" x14ac:dyDescent="0.25">
       <c r="AA27" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:27" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="27:27" x14ac:dyDescent="0.25">
       <c r="AA28" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="29" spans="1:27" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="29" spans="27:27" x14ac:dyDescent="0.25">
       <c r="AA29" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:27" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="27:27" x14ac:dyDescent="0.25">
       <c r="AA30" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:27" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="27:27" x14ac:dyDescent="0.25">
       <c r="AA31" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:27" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="27:27" x14ac:dyDescent="0.25">
       <c r="AA32" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="33" outlineLevel="1" x14ac:dyDescent="0.25"/>
-    <row r="34" outlineLevel="1" x14ac:dyDescent="0.25"/>
-    <row r="35" outlineLevel="1" x14ac:dyDescent="0.25"/>
-    <row r="36" outlineLevel="1" x14ac:dyDescent="0.25"/>
-    <row r="37" outlineLevel="1" x14ac:dyDescent="0.25"/>
-    <row r="38" outlineLevel="1" x14ac:dyDescent="0.25"/>
-    <row r="39" outlineLevel="1" x14ac:dyDescent="0.25"/>
-    <row r="40" outlineLevel="1" x14ac:dyDescent="0.25"/>
-    <row r="41" outlineLevel="1" x14ac:dyDescent="0.25"/>
-    <row r="42" outlineLevel="1" x14ac:dyDescent="0.25"/>
-    <row r="43" outlineLevel="1" x14ac:dyDescent="0.25"/>
-    <row r="44" outlineLevel="1" x14ac:dyDescent="0.25"/>
-    <row r="45" outlineLevel="1" x14ac:dyDescent="0.25"/>
-    <row r="46" outlineLevel="1" x14ac:dyDescent="0.25"/>
-    <row r="47" outlineLevel="1" x14ac:dyDescent="0.25"/>
-    <row r="48" outlineLevel="1" x14ac:dyDescent="0.25"/>
-    <row r="49" outlineLevel="1" x14ac:dyDescent="0.25"/>
-    <row r="50" outlineLevel="1" x14ac:dyDescent="0.25"/>
-    <row r="51" outlineLevel="1" x14ac:dyDescent="0.25"/>
-    <row r="52" outlineLevel="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>
   </mergeCells>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B2" location="'Scores (2-1-26)'!A1" display="Scores" xr:uid="{DBAAC702-0EFD-459F-B669-94C735423075}"/>
+    <hyperlink ref="B3" location="'Scores (2-2-26)'!A1" display="Scores" xr:uid="{D07AFD4A-2A9E-4F65-9BD6-4E9C70ACC45F}"/>
+    <hyperlink ref="B4" location="'Scores (2-3-26)'!A1" display="Scores" xr:uid="{DA8CA213-5F2B-4FE2-B577-15793615C27A}"/>
+    <hyperlink ref="B5" location="'Scores (2-4-26)'!A1" display="Scores" xr:uid="{66B98681-C362-4A2F-8CBF-6B9725E85ADA}"/>
+    <hyperlink ref="B6" location="'Scores (2-5-26)'!A1" display="Scores" xr:uid="{F94A05C6-4108-4B90-A7E4-DDDC02A37C50}"/>
+    <hyperlink ref="B7" location="'Scores (2-25-26)'!A1" display="Scores" xr:uid="{975BAD3C-3741-4813-9567-14F6D4986004}"/>
+    <hyperlink ref="B8" location="'Scores (2-26-26)'!A1" display="Scores" xr:uid="{866E9BA9-5D41-4703-B5A2-FE8D26D04FE7}"/>
+    <hyperlink ref="B9" location="'Scores (2-27-26)'!A1" display="Scores" xr:uid="{3A933DE3-1974-4CAE-AE02-B0BC1B0427E9}"/>
+    <hyperlink ref="B10" location="'Scores (2-28-26)'!A1" display="Scores" xr:uid="{EA5B8DBE-6347-4D38-8897-EBD7B3262D6F}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0148CC85-F753-4FD2-B9F3-A5962DDFE417}">
-  <dimension ref="A1:O56"/>
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C29E6537-C325-4B45-AEB8-F65E6522F858}">
+  <dimension ref="A1:AA17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="2" width="21.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="D1" s="20"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="40" spans="10:15" x14ac:dyDescent="0.25">
-      <c r="O40" s="7"/>
-    </row>
-    <row r="41" spans="10:15" x14ac:dyDescent="0.25">
-      <c r="O41" s="7"/>
-    </row>
-    <row r="42" spans="10:15" x14ac:dyDescent="0.25">
-      <c r="O42" s="7"/>
-    </row>
-    <row r="43" spans="10:15" x14ac:dyDescent="0.25">
-      <c r="O43" s="7"/>
-    </row>
-    <row r="44" spans="10:15" x14ac:dyDescent="0.25">
-      <c r="O44" s="7"/>
-    </row>
-    <row r="45" spans="10:15" x14ac:dyDescent="0.25">
-      <c r="K45" s="7"/>
-      <c r="O45" s="7"/>
-    </row>
-    <row r="46" spans="10:15" x14ac:dyDescent="0.25">
-      <c r="K46" s="7"/>
-      <c r="O46" s="7"/>
-    </row>
-    <row r="47" spans="10:15" x14ac:dyDescent="0.25">
-      <c r="J47" s="7"/>
-      <c r="K47" s="7"/>
-      <c r="O47" s="7"/>
-    </row>
-    <row r="49" spans="10:15" x14ac:dyDescent="0.25">
-      <c r="O49" s="7"/>
-    </row>
-    <row r="50" spans="10:15" x14ac:dyDescent="0.25">
-      <c r="K50" s="7"/>
-      <c r="O50" s="7"/>
-    </row>
-    <row r="51" spans="10:15" x14ac:dyDescent="0.25">
-      <c r="O51" s="7"/>
-    </row>
-    <row r="52" spans="10:15" x14ac:dyDescent="0.25">
-      <c r="J52" s="7"/>
-      <c r="O52" s="7"/>
-    </row>
-    <row r="53" spans="10:15" x14ac:dyDescent="0.25">
-      <c r="J53" s="7"/>
-      <c r="K53" s="7"/>
-      <c r="O53" s="7"/>
-    </row>
-    <row r="54" spans="10:15" x14ac:dyDescent="0.25">
-      <c r="J54" s="7"/>
-      <c r="O54" s="7"/>
-    </row>
-    <row r="55" spans="10:15" x14ac:dyDescent="0.25">
-      <c r="J55" s="7"/>
-      <c r="K55" s="7"/>
-      <c r="O55" s="7"/>
-    </row>
-    <row r="56" spans="10:15" x14ac:dyDescent="0.25">
-      <c r="J56" s="7"/>
-      <c r="K56" s="7"/>
-      <c r="O56" s="7"/>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:D1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82695FB2-CA88-4767-9DA7-832F5FE9DAB0}">
-  <dimension ref="A1:AA19"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1378,134 +1217,174 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="8" t="s">
-        <v>44</v>
+      <c r="A1" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="7" t="s">
+        <v>38</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:27" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>40</v>
+      <c r="A2" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>34</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:27" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="14"/>
-      <c r="B3" s="13"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="13"/>
+      <c r="A3" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="12"/>
+      <c r="C3" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="12"/>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A4" s="12"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="11"/>
+      <c r="A4" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="10"/>
+      <c r="C4" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="10"/>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A5" s="12"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="11"/>
+      <c r="A5" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="10"/>
+      <c r="C5" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="10"/>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A6" s="12"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="11"/>
+      <c r="A6" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="10"/>
+      <c r="C6" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="10"/>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A7" s="12"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="11"/>
+      <c r="A7" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="10"/>
+      <c r="C7" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="10"/>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A8" s="12"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="11"/>
+      <c r="A8" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="10"/>
+      <c r="C8" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="10"/>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A9" s="12"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="11"/>
+      <c r="A9" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="10"/>
+      <c r="C9" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="10"/>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A10" s="12"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="11"/>
+      <c r="A10" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" s="10"/>
+      <c r="C10" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="10"/>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A11" s="12"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="11"/>
+      <c r="A11" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="10"/>
+      <c r="C11" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="10"/>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A12" s="12"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="11"/>
+      <c r="A12" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="10"/>
+      <c r="C12" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="10"/>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A13" s="12"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="11"/>
+      <c r="A13" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="10"/>
+      <c r="C13" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="10"/>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A14" s="12"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="11"/>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A15" s="12"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="11"/>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A16" s="12"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="11"/>
-    </row>
-    <row r="17" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="10"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="9"/>
-    </row>
-    <row r="18" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="8" t="s">
-        <v>37</v>
+      <c r="A14" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="10"/>
+      <c r="C14" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="10"/>
+    </row>
+    <row r="15" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" s="8"/>
+      <c r="C15" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="8"/>
+    </row>
+    <row r="16" spans="1:27" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -1513,24 +1392,24 @@
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E17" xr:uid="{00000000-0002-0000-0200-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E15" xr:uid="{1F8FF61B-CFB8-4F91-A548-8FA1F742F634}">
       <formula1>$AA$1:$AA$2</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="E1" location="Index!A1" display="INDEX" xr:uid="{BAA4E157-7AD9-4D58-9557-33B5B6680F3F}"/>
-    <hyperlink ref="A18" location="'Offense (10-10-23)'!A1" display="Offense" xr:uid="{92E877DE-4515-48D6-9B56-CC914E41359A}"/>
-    <hyperlink ref="A19" location="'Goalies (10-10-23)'!A1" display="Goalies" xr:uid="{3439A79D-EC1A-4C2D-9169-5FCDEF87C1B7}"/>
+    <hyperlink ref="E1" location="Index!A1" display="INDEX" xr:uid="{2CC754E3-26F8-4D8C-AA27-3B81AED800F9}"/>
+    <hyperlink ref="A16" location="'Offense (2-28-26)'!A1" display="Offense" xr:uid="{5B939905-CC0E-41C4-B1A3-45A0387B089C}"/>
+    <hyperlink ref="A17" location="'Goalies (2-28-26)'!A1" display="Goalies" xr:uid="{0B1567CB-1980-4986-9BA0-3DCFDC756816}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000001000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{9D1B48C5-BED6-4716-B3BF-692057C8BBF4}">
           <x14:formula1>
             <xm:f>Index!$AA$1:$AA$32</xm:f>
           </x14:formula1>
-          <xm:sqref>A3:A17 C3:C17</xm:sqref>
+          <xm:sqref>C3:C15 A3:A15</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1538,13 +1417,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ED9F52C-4A3A-44E0-BBDC-950685570BE6}">
   <dimension ref="A1:U1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1552,86 +1429,602 @@
     <col min="2" max="2" width="9.140625" style="1"/>
     <col min="3" max="3" width="22" style="1" customWidth="1"/>
     <col min="4" max="15" width="9.140625" style="1"/>
-    <col min="16" max="18" width="9.140625" style="17"/>
+    <col min="16" max="18" width="9.140625" style="16"/>
     <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="P1" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="P1" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q1" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="R1" s="17" t="s">
-        <v>62</v>
+      <c r="Q1" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="R1" s="16" t="s">
+        <v>55</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="U1" s="8" t="s">
-        <v>47</v>
+        <v>53</v>
+      </c>
+      <c r="U1" s="7" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="U1" location="'Scores (10-4-24)'!A1" display="HOME" xr:uid="{E6243207-8E81-4D22-A737-3DA59F72993E}"/>
+    <hyperlink ref="U1" location="'Scores (2-1-26)'!A1" display="HOME" xr:uid="{5772C252-1A37-40A4-8C33-F96705E647FE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BAF5206-6C7C-473B-8F0B-07B9A3759B8D}">
+  <dimension ref="A1:M7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="1"/>
+    <col min="3" max="3" width="22" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K2" s="15"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K3" s="15"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K4" s="15"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K5" s="15"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K6" s="15"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K7" s="15"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="M1" location="'Scores (2-1-26)'!A1" display="HOME" xr:uid="{C1C3C6D7-8A72-40DC-82A3-120186E367AE}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{086C2904-55D8-47AB-84A3-06B6C65FEC6C}">
+  <dimension ref="A1:U1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="1"/>
+    <col min="3" max="3" width="22" style="1" customWidth="1"/>
+    <col min="4" max="15" width="9.140625" style="1"/>
+    <col min="16" max="18" width="9.140625" style="16"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="P1" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q1" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="R1" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="U1" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="U1" location="'Scores (2-2-26)'!A1" display="HOME" xr:uid="{80E20186-5990-4987-A617-90C8666D81F4}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2038158C-7541-4C24-806D-8135665A0BCB}">
+  <dimension ref="A1:M7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="1"/>
+    <col min="3" max="3" width="22" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K2" s="15"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K3" s="15"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K4" s="15"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K5" s="15"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K6" s="15"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K7" s="15"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="M1" location="'Scores (2-2-26)'!A1" display="HOME" xr:uid="{95B93C4F-8ED4-4F03-9F7C-A4CF629346FA}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{989AB357-D67B-4E5E-AEB5-2050BA9FA761}">
+  <dimension ref="A1:U1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="1"/>
+    <col min="3" max="3" width="22" style="1" customWidth="1"/>
+    <col min="4" max="15" width="9.140625" style="1"/>
+    <col min="16" max="18" width="9.140625" style="16"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="P1" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q1" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="R1" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="U1" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="U1" location="'Scores (2-3-26)'!A1" display="HOME" xr:uid="{F9FBD2E1-EF23-42B8-83CE-11C9ED7220EB}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D01E0283-236E-495D-9B37-DE497B6BB094}">
+  <dimension ref="A1:M7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="1"/>
+    <col min="3" max="3" width="22" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K2" s="15"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K3" s="15"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K4" s="15"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K5" s="15"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K6" s="15"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K7" s="15"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="M1" location="'Scores (2-3-26)'!A1" display="HOME" xr:uid="{CB61EAF7-55A2-4D6F-B84E-354EBE488588}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F835DA5-3CDD-42A8-8FDD-C586730C3DC5}">
+  <dimension ref="A1:U1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="1"/>
+    <col min="3" max="3" width="22" style="1" customWidth="1"/>
+    <col min="4" max="15" width="9.140625" style="1"/>
+    <col min="16" max="18" width="9.140625" style="16"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="P1" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q1" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="R1" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="U1" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="U1" location="'Scores (2-4-26)'!A1" display="HOME" xr:uid="{46D601B7-2232-491B-93CA-B30541888601}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{407E1BDE-9A9B-4705-B86A-588021B813CE}">
   <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1648,68 +2041,2250 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="M1" s="8" t="s">
-        <v>47</v>
+        <v>41</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="K2" s="16"/>
+      <c r="K2" s="15"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="K3" s="16"/>
+      <c r="K3" s="15"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="K4" s="16"/>
+      <c r="K4" s="15"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="K5" s="16"/>
+      <c r="K5" s="15"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="K6" s="16"/>
+      <c r="K6" s="15"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="K7" s="16"/>
+      <c r="K7" s="15"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="M1" location="'Scores (10-4-24)'!A1" display="HOME" xr:uid="{C1C3C6D7-8A72-40DC-82A3-120186E367AE}"/>
+    <hyperlink ref="M1" location="'Scores (2-4-26)'!A1" display="HOME" xr:uid="{EE69E769-FC9E-4FEE-8056-EBF10020E00E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C507914F-660C-48E7-A9B7-8189F59115C0}">
+  <dimension ref="A1:U1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="1"/>
+    <col min="3" max="3" width="22" style="1" customWidth="1"/>
+    <col min="4" max="15" width="9.140625" style="1"/>
+    <col min="16" max="18" width="9.140625" style="16"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="P1" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q1" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="R1" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="U1" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="U1" location="'Scores (2-5-26)'!A1" display="HOME" xr:uid="{BB17504F-0E2E-4A09-A97B-33ABB815C19D}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82695FB2-CA88-4767-9DA7-832F5FE9DAB0}">
+  <dimension ref="A1:AA7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="25.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="12"/>
+      <c r="C3" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="12"/>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="10"/>
+      <c r="C4" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="10"/>
+    </row>
+    <row r="5" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="8"/>
+      <c r="C5" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="8"/>
+    </row>
+    <row r="6" spans="1:27" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E5" xr:uid="{00000000-0002-0000-0200-000000000000}">
+      <formula1>$AA$1:$AA$2</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="E1" location="Index!A1" display="INDEX" xr:uid="{BAA4E157-7AD9-4D58-9557-33B5B6680F3F}"/>
+    <hyperlink ref="A6" location="'Offense (2-1-26)'!A1" display="Offense" xr:uid="{92E877DE-4515-48D6-9B56-CC914E41359A}"/>
+    <hyperlink ref="A7" location="'Goalies (2-1-26)'!A1" display="Goalies" xr:uid="{3439A79D-EC1A-4C2D-9169-5FCDEF87C1B7}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000001000000}">
+          <x14:formula1>
+            <xm:f>Index!$AA$1:$AA$32</xm:f>
+          </x14:formula1>
+          <xm:sqref>C3:C5 A3:A5</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AF996F4-DE7F-40A7-BE70-33479A091B1C}">
+  <dimension ref="A1:M7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="1"/>
+    <col min="3" max="3" width="22" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K2" s="15"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K3" s="15"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K4" s="15"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K5" s="15"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K6" s="15"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K7" s="15"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="M1" location="'Scores (2-5-26)'!A1" display="HOME" xr:uid="{2C425D9B-DC8C-4796-935F-1B019CF5D83C}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD37E116-DD2E-4000-BAC1-C70D47417505}">
+  <dimension ref="A1:U1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="1"/>
+    <col min="3" max="3" width="22" style="1" customWidth="1"/>
+    <col min="4" max="15" width="9.140625" style="1"/>
+    <col min="16" max="18" width="9.140625" style="16"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="P1" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q1" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="R1" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="U1" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="U1" location="'Scores (2-25-26)'!A1" display="HOME" xr:uid="{1DD6F478-CB91-4227-97F0-230835564317}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9E6AA29-1198-47EA-985A-918357FE94E6}">
+  <dimension ref="A1:M7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="1"/>
+    <col min="3" max="3" width="22" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K2" s="15"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K3" s="15"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K4" s="15"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K5" s="15"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K6" s="15"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K7" s="15"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="M1" location="'Scores (2-25-26)'!A1" display="HOME" xr:uid="{B263CA71-8822-4AD6-8398-9B76E28D47B8}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17F411B3-6B5E-4E9F-9AAC-3AB129780AE3}">
+  <dimension ref="A1:U1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="1"/>
+    <col min="3" max="3" width="22" style="1" customWidth="1"/>
+    <col min="4" max="15" width="9.140625" style="1"/>
+    <col min="16" max="18" width="9.140625" style="16"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="P1" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q1" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="R1" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="U1" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="U1" location="'Scores (2-26-26)'!A1" display="HOME" xr:uid="{03DAC658-E681-4966-B0A3-ED9F59C8ED21}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A6E606E-DDAC-4046-AEE9-5B4FF6CC8ACD}">
+  <dimension ref="A1:M7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="1"/>
+    <col min="3" max="3" width="22" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K2" s="15"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K3" s="15"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K4" s="15"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K5" s="15"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K6" s="15"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K7" s="15"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="M1" location="'Scores (2-26-26)'!A1" display="HOME" xr:uid="{E6672B3D-432C-4B24-B581-959A2E0664E3}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38A74C84-1B0B-4AD9-9924-271724A50FAD}">
+  <dimension ref="A1:U1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="U1" sqref="U1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="1"/>
+    <col min="3" max="3" width="22" style="1" customWidth="1"/>
+    <col min="4" max="15" width="9.140625" style="1"/>
+    <col min="16" max="18" width="9.140625" style="16"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="P1" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q1" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="R1" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="U1" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="U1" location="'Scores (2-27-26)'!A1" display="HOME" xr:uid="{68238FEB-2953-46AA-AD51-7BEAAED08116}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{230D662C-F9A3-490F-A9CA-70BB9E15C3D7}">
+  <dimension ref="A1:M7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="U1" sqref="U1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="1"/>
+    <col min="3" max="3" width="22" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K2" s="15"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K3" s="15"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K4" s="15"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K5" s="15"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K6" s="15"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K7" s="15"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="M1" location="'Scores (2-27-26)'!A1" display="HOME" xr:uid="{81D34B2B-D360-4D7A-ACD6-E49BB43F6F84}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B545E64-161B-4761-A594-BABF31C43B92}">
+  <dimension ref="A1:U1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="U1" sqref="U1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="1"/>
+    <col min="3" max="3" width="22" style="1" customWidth="1"/>
+    <col min="4" max="15" width="9.140625" style="1"/>
+    <col min="16" max="18" width="9.140625" style="16"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="P1" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q1" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="R1" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="U1" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="U1" location="'Scores (2-28-26)'!A1" display="HOME" xr:uid="{03B918C3-65C3-4DC7-A7A8-0929A7CA61BA}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CD1726A-B9C5-44A2-80F9-BED311284A3E}">
+  <dimension ref="A1:M7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M1" sqref="M1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="1"/>
+    <col min="3" max="3" width="22" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K2" s="15"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K3" s="15"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K4" s="15"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K5" s="15"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K6" s="15"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K7" s="15"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="M1" location="'Scores (2-28-26)'!A1" display="HOME" xr:uid="{E1962EEE-C29D-4DE0-B8BE-F3BB0B29FA1F}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6271F80-1D7F-4274-903F-B744F4A6580C}">
+  <dimension ref="A1:AA14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="25.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="12"/>
+      <c r="C3" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="12"/>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="10"/>
+      <c r="C4" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="10"/>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="10"/>
+      <c r="C5" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="10"/>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="10"/>
+      <c r="C6" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="10"/>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="10"/>
+      <c r="C7" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="10"/>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="10"/>
+      <c r="C8" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="10"/>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="10"/>
+      <c r="C9" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="10"/>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="10"/>
+      <c r="C10" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="10"/>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A11" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="10"/>
+      <c r="C11" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="D11" s="10"/>
+    </row>
+    <row r="12" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="8"/>
+      <c r="C12" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="8"/>
+    </row>
+    <row r="13" spans="1:27" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E12" xr:uid="{228E1AE6-4809-40A7-9AE1-3602C30C6F4B}">
+      <formula1>$AA$1:$AA$2</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="E1" location="Index!A1" display="INDEX" xr:uid="{74EA84DB-3517-473F-A618-85B932417466}"/>
+    <hyperlink ref="A13" location="'Offense (2-2-26)'!A1" display="Offense" xr:uid="{8752DCD2-5179-40A5-99E4-1136512620C2}"/>
+    <hyperlink ref="A14" location="'Goalies (2-2-26)'!A1" display="Goalies" xr:uid="{4C0F86B5-56CB-4E64-BE9A-E1669AF29B67}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{03973E09-F73E-4F8A-B7CD-0CB024ADB136}">
+          <x14:formula1>
+            <xm:f>Index!$AA$1:$AA$32</xm:f>
+          </x14:formula1>
+          <xm:sqref>C3:C12 A3:A12</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8AB1FE1-BCE4-43A0-A303-97FB070010CF}">
+  <dimension ref="A1:AA11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="25.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="12"/>
+      <c r="C3" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="12"/>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="10"/>
+      <c r="C4" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="10"/>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="10"/>
+      <c r="C5" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="10"/>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="10"/>
+      <c r="C6" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="10"/>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="10"/>
+      <c r="C7" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="10"/>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="10"/>
+      <c r="C8" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="10"/>
+    </row>
+    <row r="9" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="8"/>
+      <c r="C9" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="8"/>
+    </row>
+    <row r="10" spans="1:27" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E9" xr:uid="{F9215421-58FA-4EF5-B88A-DFB56CD8B570}">
+      <formula1>$AA$1:$AA$2</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="E1" location="Index!A1" display="INDEX" xr:uid="{2445457D-FD95-44C3-B73E-5E3C218418E0}"/>
+    <hyperlink ref="A10" location="'Offense (2-3-26)'!A1" display="Offense" xr:uid="{B1F779AD-CC12-4927-9674-2772A44E5F49}"/>
+    <hyperlink ref="A11" location="'Goalies (2-3-26)'!A1" display="Goalies" xr:uid="{1A475491-B565-46D6-A93C-E5C98983FF95}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{799C3EE3-94DC-4F10-B4F1-372C8E37AC96}">
+          <x14:formula1>
+            <xm:f>Index!$AA$1:$AA$32</xm:f>
+          </x14:formula1>
+          <xm:sqref>C3:C9 A3:A9</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD14B5FC-5C06-4714-AB20-744CA6E25987}">
+  <dimension ref="A1:AA14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="25.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="12"/>
+      <c r="C3" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="12"/>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="10"/>
+      <c r="C4" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="10"/>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="10"/>
+      <c r="C5" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="10"/>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="10"/>
+      <c r="C6" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="10"/>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="10"/>
+      <c r="C7" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="10"/>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="10"/>
+      <c r="C8" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="D8" s="10"/>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="10"/>
+      <c r="C9" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="10"/>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="10"/>
+      <c r="C10" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="10"/>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A11" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="10"/>
+      <c r="C11" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="10"/>
+    </row>
+    <row r="12" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="8"/>
+      <c r="C12" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="8"/>
+    </row>
+    <row r="13" spans="1:27" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E12" xr:uid="{6D30B444-C917-4BCB-86DD-82BADCB46A15}">
+      <formula1>$AA$1:$AA$2</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="E1" location="Index!A1" display="INDEX" xr:uid="{5C9B6D91-8783-4D46-A823-1D99EF55114C}"/>
+    <hyperlink ref="A13" location="'Offense (2-4-26)'!A1" display="Offense" xr:uid="{1C4F01C8-A506-4DB0-B968-2BA6124BE350}"/>
+    <hyperlink ref="A14" location="'Goalies (2-4-26)'!A1" display="Goalies" xr:uid="{8539D13D-C192-49AC-831F-61D8678D7050}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{8A12EEC7-9FBA-4D54-A0A3-255063BB30A0}">
+          <x14:formula1>
+            <xm:f>Index!$AA$1:$AA$32</xm:f>
+          </x14:formula1>
+          <xm:sqref>C3:C12 A3:A12</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCA2E770-447B-4AE3-9561-B3A5C9643870}">
+  <dimension ref="A1:AA11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="25.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="12"/>
+      <c r="C3" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="12"/>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="10"/>
+      <c r="C4" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="10"/>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="10"/>
+      <c r="C5" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="10"/>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="10"/>
+      <c r="C6" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="10"/>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="10"/>
+      <c r="C7" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="10"/>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="10"/>
+      <c r="C8" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="10"/>
+    </row>
+    <row r="9" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="8"/>
+      <c r="C9" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="8"/>
+    </row>
+    <row r="10" spans="1:27" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E9" xr:uid="{B7109766-C9C5-45A7-93F4-DCD296B9928E}">
+      <formula1>$AA$1:$AA$2</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="E1" location="Index!A1" display="INDEX" xr:uid="{046FA61B-C0D4-49DC-BE70-66147F68A0F0}"/>
+    <hyperlink ref="A10" location="'Offense (2-5-26)'!A1" display="Offense" xr:uid="{A33FC30D-0919-41D6-9B21-AB851B31004E}"/>
+    <hyperlink ref="A11" location="'Goalies (2-5-26)'!A1" display="Goalies" xr:uid="{1F9B305F-B1CF-49C2-895C-7DFA6B769D23}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{EC40CED0-BE70-4C77-BCC1-C9A549833913}">
+          <x14:formula1>
+            <xm:f>Index!$AA$1:$AA$32</xm:f>
+          </x14:formula1>
+          <xm:sqref>C3:C9 A3:A9</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EFABEA8-066A-47C9-8BFC-9A8FB3D41A61}">
+  <dimension ref="A1:AA12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="25.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="12"/>
+      <c r="C3" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="12"/>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="10"/>
+      <c r="C4" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="10"/>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="10"/>
+      <c r="C5" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="10"/>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="10"/>
+      <c r="C6" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="10"/>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="10"/>
+      <c r="C7" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="D7" s="10"/>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="10"/>
+      <c r="C8" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="10"/>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="10"/>
+      <c r="C9" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="10"/>
+    </row>
+    <row r="10" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="8"/>
+      <c r="C10" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="8"/>
+    </row>
+    <row r="11" spans="1:27" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E10" xr:uid="{0D84692F-6021-434B-B025-15C83D893BFF}">
+      <formula1>$AA$1:$AA$2</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="E1" location="Index!A1" display="INDEX" xr:uid="{57E25429-1DB3-4CF9-B1E5-6D0AB7CC09C6}"/>
+    <hyperlink ref="A11" location="'Offense (2-25-26)'!A1" display="Offense" xr:uid="{E39B43F1-26BF-4B0D-9519-663E7C4F4D05}"/>
+    <hyperlink ref="A12" location="'Goalies (2-25-26)'!A1" display="Goalies" xr:uid="{A5EE6D3F-D97F-4179-AFC6-E26AC5FCFCAA}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{84EC7383-F37F-4AE7-8EB7-095BAA7702F5}">
+          <x14:formula1>
+            <xm:f>Index!$AA$1:$AA$32</xm:f>
+          </x14:formula1>
+          <xm:sqref>C3:C10 A3:A10</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D7859AD-60E2-4DE2-BCFD-B7DDFE2E59E9}">
+  <dimension ref="A1:AA16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="25.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="12"/>
+      <c r="C3" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="12"/>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="10"/>
+      <c r="C4" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="10"/>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="10"/>
+      <c r="C5" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="10"/>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="10"/>
+      <c r="C6" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="10"/>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="10"/>
+      <c r="C7" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="10"/>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="10"/>
+      <c r="C8" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="10"/>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="10"/>
+      <c r="C9" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="10"/>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="10"/>
+      <c r="C10" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="10"/>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A11" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="10"/>
+      <c r="C11" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="10"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A12" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="10"/>
+      <c r="C12" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="10"/>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A13" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="10"/>
+      <c r="C13" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="10"/>
+    </row>
+    <row r="14" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="8"/>
+      <c r="C14" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="8"/>
+    </row>
+    <row r="15" spans="1:27" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E14" xr:uid="{C4C50F3F-9BC3-46E6-A476-DF80913730FC}">
+      <formula1>$AA$1:$AA$2</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="E1" location="Index!A1" display="INDEX" xr:uid="{B0214127-2128-42C3-9E72-7D635491CF0D}"/>
+    <hyperlink ref="A15" location="'Offense (2-26-26)'!A1" display="Offense" xr:uid="{F4D977F3-7301-4FC9-910E-1B640620B8FB}"/>
+    <hyperlink ref="A16" location="'Goalies (2-26-26)'!A1" display="Goalies" xr:uid="{A8FDC29A-5376-4EED-BDEF-BA60801F5F36}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{D043D010-F52E-4FE7-9FD9-B98F1DDEFDEF}">
+          <x14:formula1>
+            <xm:f>Index!$AA$1:$AA$32</xm:f>
+          </x14:formula1>
+          <xm:sqref>C3:C14 A3:A14</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A2FD3BE-7FA7-4CDA-9BB2-EF8D5C15D0EB}">
+  <dimension ref="A1:AA8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="25.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="12"/>
+      <c r="C3" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="12"/>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="10"/>
+      <c r="C4" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="10"/>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="10"/>
+      <c r="C5" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="D5" s="10"/>
+    </row>
+    <row r="6" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="8"/>
+      <c r="C6" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="8"/>
+    </row>
+    <row r="7" spans="1:27" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E6" xr:uid="{316C2123-CC7A-403E-B40C-D2704765F0C5}">
+      <formula1>$AA$1:$AA$2</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="E1" location="Index!A1" display="INDEX" xr:uid="{8ED44E4C-8E0C-4798-A00B-1B024151FB3E}"/>
+    <hyperlink ref="A7" location="'Offense (2-27-26)'!A1" display="Offense" xr:uid="{22995757-ED90-4A6E-8D8A-3311F9D9F357}"/>
+    <hyperlink ref="A8" location="'Goalies (2-27-26)'!A1" display="Goalies" xr:uid="{9ED98052-1117-4D4E-9387-17D784286198}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{F8BB8499-4543-4CEC-86C3-F0698D8BFD3A}">
+          <x14:formula1>
+            <xm:f>Index!$AA$1:$AA$32</xm:f>
+          </x14:formula1>
+          <xm:sqref>C3:C6 A3:A6</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
 </file>